--- a/biology/Botanique/Bois_de_joli_cœur/Bois_de_joli_cœur.xlsx
+++ b/biology/Botanique/Bois_de_joli_cœur/Bois_de_joli_cœur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bois_de_joli_c%C5%93ur</t>
+          <t>Bois_de_joli_cœur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pittosporum senacia
-Le bois de joli cœur (Pittosporum senacia) est un petit arbuste glabre et très ramifié de la famille des Pittosporaceae que l'on trouve aux Seychelles, à Madagascar, à La Réunion et à l'île Maurice. On lui donne également les noms de bois carotte[1] et bois mangue, les feuilles froissées dégageant un parfum entre carotte et mangue carotte. Le bois mangue désigne par ailleurs Scyphochlamys revoluta, endémique de Rodrigues.
+Le bois de joli cœur (Pittosporum senacia) est un petit arbuste glabre et très ramifié de la famille des Pittosporaceae que l'on trouve aux Seychelles, à Madagascar, à La Réunion et à l'île Maurice. On lui donne également les noms de bois carotte et bois mangue, les feuilles froissées dégageant un parfum entre carotte et mangue carotte. Le bois mangue désigne par ailleurs Scyphochlamys revoluta, endémique de Rodrigues.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bois_de_joli_c%C5%93ur</t>
+          <t>Bois_de_joli_cœur</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Pittosporum senacia subsp. coursii (Cuf.) Cuf. se rencontre à Madagascar.
 Pittosporum senacia subsp. reticulatum (Tul.) Coode se rencontre à La Réunion.
